--- a/Blender/Shape Dimensions.xlsx
+++ b/Blender/Shape Dimensions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin_faruq\OneDrive - York University\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff60f4e470b0784b/Projects/Unity/VRMultiplayer-Normcore-/Blender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3371F55-19A8-4B38-A183-D21EB156738A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="13_ncr:1_{C3371F55-19A8-4B38-A183-D21EB156738A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D88784C-B760-40B5-9879-0C4B86A66FDF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{F8D9BBB8-DF6E-4383-B342-E7D00C59515B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="14592" xr2:uid="{F8D9BBB8-DF6E-4383-B342-E7D00C59515B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>Shape</t>
   </si>
@@ -54,9 +65,6 @@
     <t>parallelogram</t>
   </si>
   <si>
-    <t>rhombus/diamond</t>
-  </si>
-  <si>
     <t>square</t>
   </si>
   <si>
@@ -103,6 +111,141 @@
   </si>
   <si>
     <t>trapezium top</t>
+  </si>
+  <si>
+    <t>side length1</t>
+  </si>
+  <si>
+    <t>side length2</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>diamond/rhombus</t>
+  </si>
+  <si>
+    <t>back thickness</t>
+  </si>
+  <si>
+    <t>left thickness</t>
+  </si>
+  <si>
+    <t>right thickness</t>
+  </si>
+  <si>
+    <t>front thickness</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>inner width</t>
+  </si>
+  <si>
+    <t>inner height</t>
+  </si>
+  <si>
+    <t>inner length</t>
+  </si>
+  <si>
+    <t>bottom thickness</t>
+  </si>
+  <si>
+    <t>top depth</t>
+  </si>
+  <si>
+    <t>faces</t>
+  </si>
+  <si>
+    <t>front face</t>
+  </si>
+  <si>
+    <t>s dist from bot</t>
+  </si>
+  <si>
+    <t>s dist from right</t>
+  </si>
+  <si>
+    <t>o dist from top</t>
+  </si>
+  <si>
+    <t>o dist from left</t>
+  </si>
+  <si>
+    <t>p dist from top</t>
+  </si>
+  <si>
+    <t>right face</t>
+  </si>
+  <si>
+    <t>h dist from top</t>
+  </si>
+  <si>
+    <t>h dist from left</t>
+  </si>
+  <si>
+    <t>r dist from top</t>
+  </si>
+  <si>
+    <t>r dist from right</t>
+  </si>
+  <si>
+    <t>p dist from bot</t>
+  </si>
+  <si>
+    <t>p dist from right</t>
+  </si>
+  <si>
+    <t>left face</t>
+  </si>
+  <si>
+    <t>t dist from top</t>
+  </si>
+  <si>
+    <t>t dist from left</t>
+  </si>
+  <si>
+    <t>o dist from right</t>
+  </si>
+  <si>
+    <t>d dist from bot</t>
+  </si>
+  <si>
+    <t>d dist from right</t>
+  </si>
+  <si>
+    <t>top face</t>
+  </si>
+  <si>
+    <t>t dist from bot</t>
+  </si>
+  <si>
+    <t>t dist from right</t>
+  </si>
+  <si>
+    <t>s dist from left</t>
+  </si>
+  <si>
+    <t>s dist from top</t>
+  </si>
+  <si>
+    <t>q dist from right</t>
+  </si>
+  <si>
+    <t>q dist from top</t>
+  </si>
+  <si>
+    <t>Side of face</t>
+  </si>
+  <si>
+    <t>top right</t>
+  </si>
+  <si>
+    <t>top left</t>
+  </si>
+  <si>
+    <t>bottom</t>
   </si>
 </sst>
 </file>
@@ -126,12 +269,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -146,9 +301,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -167,9 +324,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -207,7 +364,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -313,7 +470,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -455,7 +612,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -463,63 +620,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C96A0B-6EA0-4CBE-8C48-8E546039F290}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.68359375" customWidth="1"/>
+    <col min="6" max="6" width="11.83984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83984375" customWidth="1"/>
+    <col min="8" max="8" width="16.15625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.15625" customWidth="1"/>
+    <col min="10" max="10" width="16.41796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -558,8 +722,12 @@
         <f>J2/1000</f>
         <v>3.4020000000000002E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="2"/>
+      <c r="M2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -574,7 +742,7 @@
         <v>37.6</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E26" si="1">D4/1000</f>
+        <f t="shared" ref="E4:E24" si="1">D4/1000</f>
         <v>3.7600000000000001E-2</v>
       </c>
       <c r="F4">
@@ -598,8 +766,12 @@
         <f t="shared" ref="K4:K24" si="4">J4/1000</f>
         <v>3.8810000000000004E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="2"/>
+      <c r="M4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -638,8 +810,12 @@
         <f t="shared" si="4"/>
         <v>3.2850000000000004E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="2"/>
+      <c r="M6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -678,10 +854,14 @@
         <f t="shared" si="4"/>
         <v>4.095E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="2"/>
+      <c r="M8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>36.340000000000003</v>
@@ -718,8 +898,12 @@
         <f t="shared" si="4"/>
         <v>3.857E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="2"/>
+      <c r="M10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -751,12 +935,19 @@
         <f t="shared" si="3"/>
         <v>4.827E-2</v>
       </c>
+      <c r="J12">
+        <v>48.23</v>
+      </c>
       <c r="K12">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4.8229999999999995E-2</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -795,8 +986,12 @@
         <f t="shared" si="4"/>
         <v>2.946E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="2"/>
+      <c r="M14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -835,10 +1030,14 @@
         <f t="shared" si="4"/>
         <v>4.2270000000000002E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="2"/>
+      <c r="M16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>41.2</v>
@@ -875,8 +1074,12 @@
         <f t="shared" si="4"/>
         <v>5.3520000000000005E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="2"/>
+      <c r="M18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -898,12 +1101,15 @@
         <v>39.93</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f>F20/1000</f>
         <v>3.993E-2</v>
+      </c>
+      <c r="H20">
+        <v>48.68</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.8680000000000001E-2</v>
       </c>
       <c r="J20">
         <v>29.18</v>
@@ -912,10 +1118,14 @@
         <f t="shared" si="4"/>
         <v>2.9180000000000001E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="2"/>
+      <c r="M20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>32.549999999999997</v>
@@ -946,16 +1156,20 @@
         <v>3.5479999999999998E-2</v>
       </c>
       <c r="J22">
-        <v>35.299999999999997</v>
+        <v>35.479999999999997</v>
       </c>
       <c r="K22">
         <f t="shared" si="4"/>
-        <v>3.5299999999999998E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.5479999999999998E-2</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24">
         <v>42.31</v>
@@ -992,10 +1206,14 @@
         <f t="shared" si="4"/>
         <v>3.875E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="2"/>
+      <c r="M24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26">
         <v>140.03</v>
@@ -1008,7 +1226,7 @@
         <v>141.56</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f>D26/1000</f>
         <v>0.14155999999999999</v>
       </c>
       <c r="F26">
@@ -1018,15 +1236,43 @@
         <f t="shared" si="2"/>
         <v>0.14008999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>126.55</v>
+      </c>
+      <c r="C27">
+        <f>B27/1000</f>
+        <v>0.12655</v>
+      </c>
+      <c r="D27">
+        <v>4.87</v>
+      </c>
+      <c r="E27">
+        <f>D27/1000</f>
+        <v>4.8700000000000002E-3</v>
+      </c>
+      <c r="F27">
+        <v>132.88999999999999</v>
+      </c>
+      <c r="G27">
+        <f>F27/1000</f>
+        <v>0.13288999999999998</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>25</v>
       </c>
       <c r="B30">
         <v>23.28</v>
@@ -1038,7 +1284,7 @@
         <v>0.57982565379825601</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1049,7 +1295,7 @@
         <v>3.6339999999999997E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1066,6 +1312,455 @@
       <c r="E32">
         <f>C20-D32</f>
         <v>4.709E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <v>28.62</v>
+      </c>
+      <c r="D33">
+        <v>2.862E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34">
+        <v>39.15</v>
+      </c>
+      <c r="D34">
+        <v>3.9149999999999997E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="D36">
+        <f>C36/1000</f>
+        <v>1.0029999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37">
+        <v>10.07</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:D44" si="5">C37/1000</f>
+        <v>1.0070000000000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38">
+        <v>9.69</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="5"/>
+        <v>9.689999999999999E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="5"/>
+        <v>9.7100000000000016E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40">
+        <f>B26-C44</f>
+        <v>8.9900000000000091</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="5"/>
+        <v>8.9900000000000084E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41">
+        <v>15.89</v>
+      </c>
+      <c r="D41">
+        <f>C41/1000</f>
+        <v>1.5890000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42">
+        <v>119.92</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="5"/>
+        <v>0.11992</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43">
+        <v>120.69</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="5"/>
+        <v>0.12068999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44">
+        <v>131.04</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="5"/>
+        <v>0.13103999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47">
+        <v>20.89</v>
+      </c>
+      <c r="E47">
+        <f>D47/1000</f>
+        <v>2.0889999999999999E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48">
+        <v>45.68</v>
+      </c>
+      <c r="E48">
+        <f>D48/1000</f>
+        <v>4.5679999999999998E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49">
+        <v>11.65</v>
+      </c>
+      <c r="E49">
+        <f>D49/1000</f>
+        <v>1.1650000000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="E50">
+        <f>D50/1000</f>
+        <v>1.8579999999999999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51">
+        <v>15.9</v>
+      </c>
+      <c r="E51">
+        <f>D51/1000</f>
+        <v>1.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52">
+        <v>18.75</v>
+      </c>
+      <c r="E52">
+        <f>D52/1000</f>
+        <v>1.8749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54">
+        <v>22.26</v>
+      </c>
+      <c r="E54">
+        <f>D54/1000</f>
+        <v>2.2260000000000002E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55">
+        <v>17.77</v>
+      </c>
+      <c r="E55">
+        <f>D55/1000</f>
+        <v>1.7770000000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C56" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56">
+        <v>25.58</v>
+      </c>
+      <c r="E56">
+        <f>D56/1000</f>
+        <v>2.5579999999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57">
+        <v>18.66</v>
+      </c>
+      <c r="E57">
+        <f>D57/1000</f>
+        <v>1.866E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C58" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58">
+        <v>21.02</v>
+      </c>
+      <c r="E58">
+        <f>D58/1000</f>
+        <v>2.102E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C59" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59">
+        <v>47.52</v>
+      </c>
+      <c r="E59">
+        <f>D59/1000</f>
+        <v>4.752E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C61" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61">
+        <v>24.38</v>
+      </c>
+      <c r="E61">
+        <f>D61/1000</f>
+        <v>2.4379999999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62">
+        <v>18.71</v>
+      </c>
+      <c r="E62">
+        <f>D62/1000</f>
+        <v>1.8710000000000001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63">
+        <v>23.77</v>
+      </c>
+      <c r="E63">
+        <f>D63/1000</f>
+        <v>2.3769999999999999E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64">
+        <v>18.2</v>
+      </c>
+      <c r="E64">
+        <f>D64/1000</f>
+        <v>1.8200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C65" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65">
+        <v>19.79</v>
+      </c>
+      <c r="E65">
+        <f>D65/1000</f>
+        <v>1.9789999999999999E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C66" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66">
+        <v>48.29</v>
+      </c>
+      <c r="E66">
+        <f>D66/1000</f>
+        <v>4.829E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C68" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68">
+        <v>17.22</v>
+      </c>
+      <c r="E68">
+        <f>D68/1000</f>
+        <v>1.7219999999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C69" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69">
+        <v>38.92</v>
+      </c>
+      <c r="E69">
+        <f>D69/1000</f>
+        <v>3.8920000000000003E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C70" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70">
+        <v>15.21</v>
+      </c>
+      <c r="E70">
+        <f>D70/1000</f>
+        <v>1.5210000000000001E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C71" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="E71">
+        <f>D71/1000</f>
+        <v>1.908E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C72" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72">
+        <v>14.44</v>
+      </c>
+      <c r="E72">
+        <f>D72/1000</f>
+        <v>1.444E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C73" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73">
+        <v>16.38</v>
+      </c>
+      <c r="E73">
+        <f>D73/1000</f>
+        <v>1.6379999999999999E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Blender/Shape Dimensions.xlsx
+++ b/Blender/Shape Dimensions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff60f4e470b0784b/Projects/Unity/VRMultiplayer-Normcore-/Blender/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin_faruq\OneDrive - York University\Desktop\Unity3D\VRMultiplayer(Normcore)\Blender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="13_ncr:1_{C3371F55-19A8-4B38-A183-D21EB156738A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D88784C-B760-40B5-9879-0C4B86A66FDF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29C861B-9A3D-4590-AE92-0EE4A0BCFBE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="14592" xr2:uid="{F8D9BBB8-DF6E-4383-B342-E7D00C59515B}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="14595" xr2:uid="{F8D9BBB8-DF6E-4383-B342-E7D00C59515B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="106">
   <si>
     <t>Shape</t>
   </si>
@@ -246,6 +235,114 @@
   </si>
   <si>
     <t>bottom</t>
+  </si>
+  <si>
+    <t>Face</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>0.029975 m</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>0.030083 m</t>
+  </si>
+  <si>
+    <t>shape pos</t>
+  </si>
+  <si>
+    <t>-0.028472 m</t>
+  </si>
+  <si>
+    <t>0.029996 m</t>
+  </si>
+  <si>
+    <t>-0.024227 m</t>
+  </si>
+  <si>
+    <t>0.000026 m</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>-0.000052 m</t>
+  </si>
+  <si>
+    <t>-0.024212 m</t>
+  </si>
+  <si>
+    <t>0.027608 m</t>
+  </si>
+  <si>
+    <t>0.029284 m</t>
+  </si>
+  <si>
+    <t>-0.030323 m</t>
+  </si>
+  <si>
+    <t>0.026453 m</t>
+  </si>
+  <si>
+    <t>H2S Width Scale</t>
+  </si>
+  <si>
+    <t>H2S Height Scale</t>
+  </si>
+  <si>
+    <t>0.024393 m</t>
+  </si>
+  <si>
+    <t>0.026495 m</t>
+  </si>
+  <si>
+    <t>-0.032029 m</t>
+  </si>
+  <si>
+    <t>0.023831 m</t>
+  </si>
+  <si>
+    <t>-0.02832 m</t>
+  </si>
+  <si>
+    <t>-0.007995 m</t>
+  </si>
+  <si>
+    <t>0.029146 m</t>
+  </si>
+  <si>
+    <t>H2S Width %</t>
+  </si>
+  <si>
+    <t>H2S Height %</t>
+  </si>
+  <si>
+    <t>-0.030357 m</t>
+  </si>
+  <si>
+    <t>0.030469 m</t>
+  </si>
+  <si>
+    <t>0.031995 m</t>
+  </si>
+  <si>
+    <t>-0.031443 m</t>
+  </si>
+  <si>
+    <t>0.001185 m</t>
   </si>
 </sst>
 </file>
@@ -284,7 +381,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,9 +421,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -364,7 +461,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -470,7 +567,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -612,7 +709,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -620,29 +717,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C96A0B-6EA0-4CBE-8C48-8E546039F290}">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.83984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.3125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.68359375" customWidth="1"/>
-    <col min="6" max="6" width="11.83984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83984375" customWidth="1"/>
-    <col min="8" max="8" width="16.15625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.15625" customWidth="1"/>
-    <col min="10" max="10" width="16.41796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,10 +781,25 @@
         <v>27</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="O1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -724,10 +840,29 @@
       </c>
       <c r="L2" s="2"/>
       <c r="M2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="O2">
+        <f>I2/C2</f>
+        <v>1.024545255314486</v>
+      </c>
+      <c r="P2">
+        <f>K2/E2</f>
+        <v>1.0624609618988132</v>
+      </c>
+      <c r="Q2">
+        <f>(O2-1)*100</f>
+        <v>2.4545255314486036</v>
+      </c>
+      <c r="R2">
+        <f>(P2-1)*100</f>
+        <v>6.2460961898813228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -768,10 +903,29 @@
       </c>
       <c r="L4" s="2"/>
       <c r="M4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="O4">
+        <f t="shared" ref="O4" si="5">I4/C4</f>
+        <v>1.03218085106383</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P24" si="6">K4/E4</f>
+        <v>1.03218085106383</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q3:Q24" si="7">(O4-1)*100</f>
+        <v>3.2180851063829952</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R3:R24" si="8">(P4-1)*100</f>
+        <v>3.2180851063829952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -812,10 +966,29 @@
       </c>
       <c r="L6" s="2"/>
       <c r="M6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="O6">
+        <f t="shared" ref="O6:O24" si="9">I6/C6</f>
+        <v>1.0585305105853053</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="6"/>
+        <v>1.0421954314720814</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="7"/>
+        <v>5.853051058530534</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="8"/>
+        <v>4.2195431472081379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -856,10 +1029,29 @@
       </c>
       <c r="L8" s="2"/>
       <c r="M8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="O8">
+        <f t="shared" si="9"/>
+        <v>1.0619711299153807</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="6"/>
+        <v>1.0661286123405362</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="7"/>
+        <v>6.1971129915380674</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="8"/>
+        <v>6.6128612340536241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -900,10 +1092,29 @@
       </c>
       <c r="L10" s="2"/>
       <c r="M10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="O10">
+        <f>I10/C10</f>
+        <v>1.0756741882223446</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="6"/>
+        <v>1.0561336254107336</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="7"/>
+        <v>7.5674188222344618</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="8"/>
+        <v>5.6133625410733634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -944,10 +1155,29 @@
       </c>
       <c r="L12" s="2"/>
       <c r="M12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="O12">
+        <f t="shared" si="9"/>
+        <v>1.1088904203997243</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="6"/>
+        <v>1.1497020262216924</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="7"/>
+        <v>10.889042039972431</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="8"/>
+        <v>14.970202622169237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -988,10 +1218,29 @@
       </c>
       <c r="L14" s="2"/>
       <c r="M14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="O14">
+        <f t="shared" si="9"/>
+        <v>1.0535180657430046</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="6"/>
+        <v>1.0939472707018196</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="7"/>
+        <v>5.351806574300455</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="8"/>
+        <v>9.394727070181963</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1032,10 +1281,29 @@
       </c>
       <c r="L16" s="2"/>
       <c r="M16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="O16">
+        <f t="shared" si="9"/>
+        <v>1.0803452855245683</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="6"/>
+        <v>1.0687737041719345</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="7"/>
+        <v>8.0345285524568322</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="8"/>
+        <v>6.8773704171934513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1076,19 +1344,38 @@
       </c>
       <c r="L18" s="2"/>
       <c r="M18" t="s">
+        <v>71</v>
+      </c>
+      <c r="N18" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="O18">
+        <f t="shared" si="9"/>
+        <v>1.0572815533980582</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="6"/>
+        <v>1.0512669416617562</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="7"/>
+        <v>5.7281553398058183</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="8"/>
+        <v>5.126694166175616</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20">
-        <v>48.89</v>
+        <v>48.23</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>4.8890000000000003E-2</v>
+        <v>4.8229999999999995E-2</v>
       </c>
       <c r="D20">
         <v>27.49</v>
@@ -1105,11 +1392,11 @@
         <v>3.993E-2</v>
       </c>
       <c r="H20">
-        <v>48.68</v>
+        <v>49.53</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>4.8680000000000001E-2</v>
+        <v>4.9530000000000005E-2</v>
       </c>
       <c r="J20">
         <v>29.18</v>
@@ -1120,10 +1407,29 @@
       </c>
       <c r="L20" s="2"/>
       <c r="M20" t="s">
+        <v>72</v>
+      </c>
+      <c r="N20" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="O20">
+        <f t="shared" si="9"/>
+        <v>1.0269541778975744</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="6"/>
+        <v>1.0614769006911606</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="7"/>
+        <v>2.6954177897574372</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="8"/>
+        <v>6.147690069116063</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1164,10 +1470,29 @@
       </c>
       <c r="L22" s="2"/>
       <c r="M22" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="O22">
+        <f t="shared" si="9"/>
+        <v>1.0900153609831029</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="6"/>
+        <v>1.0900153609831029</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="7"/>
+        <v>9.001536098310293</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="8"/>
+        <v>9.001536098310293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1208,10 +1533,29 @@
       </c>
       <c r="L24" s="2"/>
       <c r="M24" t="s">
+        <v>73</v>
+      </c>
+      <c r="N24" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="O24">
+        <f t="shared" si="9"/>
+        <v>1.0359253131647366</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="6"/>
+        <v>1.050704989154013</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="7"/>
+        <v>3.5925313164736572</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="8"/>
+        <v>5.0704989154013003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1238,7 +1582,7 @@
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1265,12 +1609,12 @@
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1284,7 +1628,7 @@
         <v>0.57982565379825601</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1295,7 +1639,7 @@
         <v>3.6339999999999997E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1311,10 +1655,10 @@
       </c>
       <c r="E32">
         <f>C20-D32</f>
-        <v>4.709E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>4.6429999999999992E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>25</v>
       </c>
@@ -1325,7 +1669,7 @@
         <v>2.862E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>26</v>
       </c>
@@ -1336,12 +1680,12 @@
         <v>3.9149999999999997E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>29</v>
       </c>
@@ -1353,7 +1697,7 @@
         <v>1.0029999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>31</v>
       </c>
@@ -1361,11 +1705,11 @@
         <v>10.07</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37:D44" si="5">C37/1000</f>
+        <f t="shared" ref="D37:D44" si="10">C37/1000</f>
         <v>1.0070000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>30</v>
       </c>
@@ -1373,11 +1717,11 @@
         <v>9.69</v>
       </c>
       <c r="D38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.689999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>32</v>
       </c>
@@ -1385,11 +1729,11 @@
         <v>9.7100000000000009</v>
       </c>
       <c r="D39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.7100000000000016E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -1398,11 +1742,11 @@
         <v>8.9900000000000091</v>
       </c>
       <c r="D40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.9900000000000084E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>38</v>
       </c>
@@ -1414,7 +1758,7 @@
         <v>1.5890000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>34</v>
       </c>
@@ -1422,11 +1766,11 @@
         <v>119.92</v>
       </c>
       <c r="D42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.11992</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>36</v>
       </c>
@@ -1434,11 +1778,11 @@
         <v>120.69</v>
       </c>
       <c r="D43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.12068999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>35</v>
       </c>
@@ -1446,21 +1790,24 @@
         <v>131.04</v>
       </c>
       <c r="D44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.13103999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>41</v>
       </c>
@@ -1468,11 +1815,17 @@
         <v>20.89</v>
       </c>
       <c r="E47">
-        <f>D47/1000</f>
+        <f t="shared" ref="E47:E52" si="11">D47/1000</f>
         <v>2.0889999999999999E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F47" t="s">
+        <v>74</v>
+      </c>
+      <c r="G47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>42</v>
       </c>
@@ -1480,11 +1833,17 @@
         <v>45.68</v>
       </c>
       <c r="E48">
-        <f>D48/1000</f>
+        <f t="shared" si="11"/>
         <v>4.5679999999999998E-2</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>43</v>
       </c>
@@ -1492,11 +1851,17 @@
         <v>11.65</v>
       </c>
       <c r="E49">
-        <f>D49/1000</f>
+        <f t="shared" si="11"/>
         <v>1.1650000000000001E-2</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F49" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>44</v>
       </c>
@@ -1504,11 +1869,17 @@
         <v>18.579999999999998</v>
       </c>
       <c r="E50">
-        <f>D50/1000</f>
+        <f t="shared" si="11"/>
         <v>1.8579999999999999E-2</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>45</v>
       </c>
@@ -1516,11 +1887,17 @@
         <v>15.9</v>
       </c>
       <c r="E51">
-        <f>D51/1000</f>
+        <f t="shared" si="11"/>
         <v>1.5900000000000001E-2</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>52</v>
       </c>
@@ -1528,16 +1905,22 @@
         <v>18.75</v>
       </c>
       <c r="E52">
-        <f>D52/1000</f>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F52" t="s">
+        <v>83</v>
+      </c>
+      <c r="G52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>47</v>
       </c>
@@ -1545,11 +1928,17 @@
         <v>22.26</v>
       </c>
       <c r="E54">
-        <f>D54/1000</f>
+        <f t="shared" ref="E54:E59" si="12">D54/1000</f>
         <v>2.2260000000000002E-2</v>
       </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F54" t="s">
+        <v>74</v>
+      </c>
+      <c r="G54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>48</v>
       </c>
@@ -1557,11 +1946,17 @@
         <v>17.77</v>
       </c>
       <c r="E55">
-        <f>D55/1000</f>
+        <f t="shared" si="12"/>
         <v>1.7770000000000001E-2</v>
       </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F55" t="s">
+        <v>76</v>
+      </c>
+      <c r="G55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>49</v>
       </c>
@@ -1569,11 +1964,17 @@
         <v>25.58</v>
       </c>
       <c r="E56">
-        <f>D56/1000</f>
+        <f t="shared" si="12"/>
         <v>2.5579999999999999E-2</v>
       </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F56" t="s">
+        <v>74</v>
+      </c>
+      <c r="G56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>50</v>
       </c>
@@ -1581,11 +1982,17 @@
         <v>18.66</v>
       </c>
       <c r="E57">
-        <f>D57/1000</f>
+        <f t="shared" si="12"/>
         <v>1.866E-2</v>
       </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F57" t="s">
+        <v>76</v>
+      </c>
+      <c r="G57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>51</v>
       </c>
@@ -1593,11 +2000,17 @@
         <v>21.02</v>
       </c>
       <c r="E58">
-        <f>D58/1000</f>
+        <f t="shared" si="12"/>
         <v>2.102E-2</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F58" t="s">
+        <v>74</v>
+      </c>
+      <c r="G58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>52</v>
       </c>
@@ -1605,16 +2018,22 @@
         <v>47.52</v>
       </c>
       <c r="E59">
-        <f>D59/1000</f>
+        <f t="shared" si="12"/>
         <v>4.752E-2</v>
       </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F59" t="s">
+        <v>76</v>
+      </c>
+      <c r="G59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>54</v>
       </c>
@@ -1622,11 +2041,17 @@
         <v>24.38</v>
       </c>
       <c r="E61">
-        <f>D61/1000</f>
+        <f t="shared" ref="E61:E66" si="13">D61/1000</f>
         <v>2.4379999999999999E-2</v>
       </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F61" t="s">
+        <v>74</v>
+      </c>
+      <c r="G61" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>55</v>
       </c>
@@ -1634,11 +2059,17 @@
         <v>18.71</v>
       </c>
       <c r="E62">
-        <f>D62/1000</f>
+        <f t="shared" si="13"/>
         <v>1.8710000000000001E-2</v>
       </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>43</v>
       </c>
@@ -1646,11 +2077,17 @@
         <v>23.77</v>
       </c>
       <c r="E63">
-        <f>D63/1000</f>
+        <f t="shared" si="13"/>
         <v>2.3769999999999999E-2</v>
       </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F63" t="s">
+        <v>74</v>
+      </c>
+      <c r="G63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>56</v>
       </c>
@@ -1661,8 +2098,14 @@
         <f>D64/1000</f>
         <v>1.8200000000000001E-2</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F64" t="s">
+        <v>76</v>
+      </c>
+      <c r="G64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>57</v>
       </c>
@@ -1670,11 +2113,17 @@
         <v>19.79</v>
       </c>
       <c r="E65">
-        <f>D65/1000</f>
+        <f t="shared" si="13"/>
         <v>1.9789999999999999E-2</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F65" t="s">
+        <v>74</v>
+      </c>
+      <c r="G65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>58</v>
       </c>
@@ -1682,16 +2131,22 @@
         <v>48.29</v>
       </c>
       <c r="E66">
-        <f>D66/1000</f>
+        <f t="shared" si="13"/>
         <v>4.829E-2</v>
       </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F66" t="s">
+        <v>76</v>
+      </c>
+      <c r="G66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>60</v>
       </c>
@@ -1699,11 +2154,17 @@
         <v>17.22</v>
       </c>
       <c r="E68">
-        <f>D68/1000</f>
+        <f t="shared" ref="E68:E73" si="14">D68/1000</f>
         <v>1.7219999999999999E-2</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F68" t="s">
+        <v>76</v>
+      </c>
+      <c r="G68" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>61</v>
       </c>
@@ -1711,11 +2172,17 @@
         <v>38.92</v>
       </c>
       <c r="E69">
-        <f>D69/1000</f>
+        <f t="shared" si="14"/>
         <v>3.8920000000000003E-2</v>
       </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F69" t="s">
+        <v>83</v>
+      </c>
+      <c r="G69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>62</v>
       </c>
@@ -1723,11 +2190,17 @@
         <v>15.21</v>
       </c>
       <c r="E70">
-        <f>D70/1000</f>
+        <f t="shared" si="14"/>
         <v>1.5210000000000001E-2</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F70" t="s">
+        <v>76</v>
+      </c>
+      <c r="G70" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>63</v>
       </c>
@@ -1735,11 +2208,17 @@
         <v>19.079999999999998</v>
       </c>
       <c r="E71">
-        <f>D71/1000</f>
+        <f t="shared" si="14"/>
         <v>1.908E-2</v>
       </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F71" t="s">
+        <v>83</v>
+      </c>
+      <c r="G71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>64</v>
       </c>
@@ -1747,11 +2226,17 @@
         <v>14.44</v>
       </c>
       <c r="E72">
-        <f>D72/1000</f>
+        <f t="shared" si="14"/>
         <v>1.444E-2</v>
       </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F72" t="s">
+        <v>76</v>
+      </c>
+      <c r="G72" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>65</v>
       </c>
@@ -1759,8 +2244,14 @@
         <v>16.38</v>
       </c>
       <c r="E73">
-        <f>D73/1000</f>
+        <f t="shared" si="14"/>
         <v>1.6379999999999999E-2</v>
+      </c>
+      <c r="F73" t="s">
+        <v>83</v>
+      </c>
+      <c r="G73" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Blender/Shape Dimensions.xlsx
+++ b/Blender/Shape Dimensions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin_faruq\OneDrive - York University\Desktop\Unity3D\VRMultiplayer(Normcore)\Blender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29C861B-9A3D-4590-AE92-0EE4A0BCFBE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658F98F7-2829-485A-B07C-AE88330987FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="14595" xr2:uid="{F8D9BBB8-DF6E-4383-B342-E7D00C59515B}"/>
   </bookViews>
@@ -720,7 +720,7 @@
   <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+      <selection activeCell="A26" sqref="A25:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,11 +917,11 @@
         <v>1.03218085106383</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q3:Q24" si="7">(O4-1)*100</f>
+        <f t="shared" ref="Q4:Q24" si="7">(O4-1)*100</f>
         <v>3.2180851063829952</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R3:R24" si="8">(P4-1)*100</f>
+        <f t="shared" ref="R4:R24" si="8">(P4-1)*100</f>
         <v>3.2180851063829952</v>
       </c>
     </row>

--- a/Blender/Shape Dimensions.xlsx
+++ b/Blender/Shape Dimensions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin_faruq\OneDrive - York University\Desktop\Unity3D\VRMultiplayer(Normcore)\Blender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658F98F7-2829-485A-B07C-AE88330987FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EFE394-B862-40FD-8C20-F454E7281EE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="14595" xr2:uid="{F8D9BBB8-DF6E-4383-B342-E7D00C59515B}"/>
   </bookViews>
@@ -720,7 +720,7 @@
   <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A25:A26"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Blender/Shape Dimensions.xlsx
+++ b/Blender/Shape Dimensions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin_faruq\OneDrive - York University\Desktop\Unity3D\VRMultiplayer(Normcore)\Blender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EFE394-B862-40FD-8C20-F454E7281EE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54EFB7C-D894-4340-865C-12E7CD744943}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="14595" xr2:uid="{F8D9BBB8-DF6E-4383-B342-E7D00C59515B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="109">
   <si>
     <t>Shape</t>
   </si>
@@ -343,6 +343,15 @@
   </si>
   <si>
     <t>0.001185 m</t>
+  </si>
+  <si>
+    <t>semi circle rad</t>
+  </si>
+  <si>
+    <t>semi circle extrude</t>
+  </si>
+  <si>
+    <t>longer width</t>
   </si>
 </sst>
 </file>
@@ -717,16 +726,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C96A0B-6EA0-4CBE-8C48-8E546039F290}">
-  <dimension ref="A1:R73"/>
+  <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
@@ -2105,7 +2114,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>57</v>
       </c>
@@ -2123,7 +2132,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>58</v>
       </c>
@@ -2141,12 +2150,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>60</v>
       </c>
@@ -2164,7 +2173,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>61</v>
       </c>
@@ -2182,7 +2191,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>62</v>
       </c>
@@ -2200,7 +2209,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>63</v>
       </c>
@@ -2218,7 +2227,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>64</v>
       </c>
@@ -2236,7 +2245,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>65</v>
       </c>
@@ -2252,6 +2261,47 @@
       </c>
       <c r="G73" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D75">
+        <f>C75/1000</f>
+        <v>1.84E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76">
+        <v>1.88</v>
+      </c>
+      <c r="D76">
+        <f>C76/1000</f>
+        <v>1.8799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>108</v>
+      </c>
+      <c r="C77">
+        <v>44.26</v>
+      </c>
+      <c r="D77">
+        <f>C77/1000</f>
+        <v>4.4260000000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Blender/Shape Dimensions.xlsx
+++ b/Blender/Shape Dimensions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin_faruq\OneDrive - York University\Desktop\Unity3D\VRMultiplayer(Normcore)\Blender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54EFB7C-D894-4340-865C-12E7CD744943}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78247496-FBDC-4FD7-BC76-72AB1AD0DF89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="14595" xr2:uid="{F8D9BBB8-DF6E-4383-B342-E7D00C59515B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="110">
   <si>
     <t>Shape</t>
   </si>
@@ -345,13 +345,16 @@
     <t>0.001185 m</t>
   </si>
   <si>
-    <t>semi circle rad</t>
-  </si>
-  <si>
     <t>semi circle extrude</t>
   </si>
   <si>
     <t>longer width</t>
+  </si>
+  <si>
+    <t>semi circle diameter</t>
+  </si>
+  <si>
+    <t>inner square</t>
   </si>
 </sst>
 </file>
@@ -375,7 +378,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,12 +388,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,11 +404,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,16 +722,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C96A0B-6EA0-4CBE-8C48-8E546039F290}">
-  <dimension ref="A1:R77"/>
+  <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
@@ -1096,7 +1092,7 @@
         <v>38.57</v>
       </c>
       <c r="K10">
-        <f t="shared" si="4"/>
+        <f>J10/1000</f>
         <v>3.857E-2</v>
       </c>
       <c r="L10" s="2"/>
@@ -1589,7 +1585,7 @@
         <f t="shared" si="2"/>
         <v>0.14008999999999999</v>
       </c>
-      <c r="L26" s="3"/>
+      <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -1616,7 +1612,7 @@
         <f>F27/1000</f>
         <v>0.13288999999999998</v>
       </c>
-      <c r="L27" s="3"/>
+      <c r="L27" s="2"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -2270,7 +2266,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C75">
         <v>18.399999999999999</v>
@@ -2279,10 +2275,18 @@
         <f>C75/1000</f>
         <v>1.84E-2</v>
       </c>
+      <c r="E75">
+        <f>D75*2</f>
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="F75">
+        <f>D75/2</f>
+        <v>9.1999999999999998E-3</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C76">
         <v>1.88</v>
@@ -2294,7 +2298,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C77">
         <v>44.26</v>
@@ -2302,6 +2306,23 @@
       <c r="D77">
         <f>C77/1000</f>
         <v>4.4260000000000001E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78">
+        <f>C77-(C75+C76+C76)</f>
+        <v>22.1</v>
+      </c>
+      <c r="D78">
+        <f>C78/1000</f>
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="E78">
+        <f>D78/2</f>
+        <v>1.1050000000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Blender/Shape Dimensions.xlsx
+++ b/Blender/Shape Dimensions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin_faruq\OneDrive - York University\Desktop\Unity3D\VRMultiplayer(Normcore)\Blender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78247496-FBDC-4FD7-BC76-72AB1AD0DF89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF91238-6D37-4FE8-8BBE-220FEFA389ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="14595" xr2:uid="{F8D9BBB8-DF6E-4383-B342-E7D00C59515B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="120">
   <si>
     <t>Shape</t>
   </si>
@@ -355,6 +355,36 @@
   </si>
   <si>
     <t>inner square</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>H2S</t>
+  </si>
+  <si>
+    <t>Hole To Shape</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Millimeters</t>
+  </si>
+  <si>
+    <t>Meters</t>
+  </si>
+  <si>
+    <t>Not modelled</t>
+  </si>
+  <si>
+    <t>Modelling</t>
+  </si>
+  <si>
+    <t>Done modelling</t>
   </si>
 </sst>
 </file>
@@ -378,7 +408,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,8 +421,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -400,14 +442,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C96A0B-6EA0-4CBE-8C48-8E546039F290}">
-  <dimension ref="A1:R78"/>
+  <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,1578 +891,2049 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="17" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="8">
         <v>45.63</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="8">
         <f>B2/1000</f>
         <v>4.5630000000000004E-2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="8">
         <v>32.020000000000003</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="8">
         <f>D2/1000</f>
         <v>3.202E-2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="8">
         <v>40.08</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="8">
         <f>F2/1000</f>
         <v>4.0079999999999998E-2</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="8">
         <v>46.75</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="8">
         <f>H2/1000</f>
         <v>4.675E-2</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="8">
         <v>34.020000000000003</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="8">
         <f>J2/1000</f>
         <v>3.4020000000000002E-2</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" t="s">
+      <c r="L2" s="18"/>
+      <c r="M2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="8">
         <f>I2/C2</f>
         <v>1.024545255314486</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="8">
         <f>K2/E2</f>
         <v>1.0624609618988132</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="8">
         <f>(O2-1)*100</f>
         <v>2.4545255314486036</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="4">
         <f>(P2-1)*100</f>
         <v>6.2460961898813228</v>
       </c>
     </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="4"/>
+    </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>37.6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <f t="shared" ref="C4:C26" si="0">B4/1000</f>
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="8">
         <v>37.6</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="8">
         <f t="shared" ref="E4:E24" si="1">D4/1000</f>
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="8">
         <v>40.04</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="8">
         <f t="shared" ref="G4:G26" si="2">F4/1000</f>
         <v>4.0039999999999999E-2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="8">
         <v>38.81</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="8">
         <f t="shared" ref="I4:I24" si="3">H4/1000</f>
         <v>3.8810000000000004E-2</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="8">
         <v>38.81</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="8">
         <f t="shared" ref="K4:K24" si="4">J4/1000</f>
         <v>3.8810000000000004E-2</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" t="s">
+      <c r="L4" s="18"/>
+      <c r="M4" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="8">
         <f t="shared" ref="O4" si="5">I4/C4</f>
         <v>1.03218085106383</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="8">
         <f t="shared" ref="P4:P24" si="6">K4/E4</f>
         <v>1.03218085106383</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="8">
         <f t="shared" ref="Q4:Q24" si="7">(O4-1)*100</f>
         <v>3.2180851063829952</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="4">
         <f t="shared" ref="R4:R24" si="8">(P4-1)*100</f>
         <v>3.2180851063829952</v>
       </c>
     </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="4"/>
+    </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <v>40.15</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <f t="shared" si="0"/>
         <v>4.0149999999999998E-2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="8">
         <v>31.52</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="8">
         <f t="shared" si="1"/>
         <v>3.1519999999999999E-2</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="8">
         <v>39.19</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="8">
         <f t="shared" si="2"/>
         <v>3.9189999999999996E-2</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="8">
         <v>42.5</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="8">
         <f t="shared" si="3"/>
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="8">
         <v>32.85</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="8">
         <f t="shared" si="4"/>
         <v>3.2850000000000004E-2</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" t="s">
+      <c r="L6" s="18"/>
+      <c r="M6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="8">
         <f t="shared" ref="O6:O24" si="9">I6/C6</f>
         <v>1.0585305105853053</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="8">
         <f t="shared" si="6"/>
         <v>1.0421954314720814</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="8">
         <f t="shared" si="7"/>
         <v>5.853051058530534</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="4">
         <f t="shared" si="8"/>
         <v>4.2195431472081379</v>
       </c>
     </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="4"/>
+    </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="8">
         <v>40.18</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <f>B8/1000</f>
         <v>4.018E-2</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="8">
         <v>38.409999999999997</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="8">
         <f>D8/1000</f>
         <v>3.841E-2</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="8">
         <v>40.369999999999997</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="8">
         <f t="shared" si="2"/>
         <v>4.0369999999999996E-2</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="8">
         <v>42.67</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="8">
         <f t="shared" si="3"/>
         <v>4.267E-2</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="8">
         <v>40.950000000000003</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="8">
         <f t="shared" si="4"/>
         <v>4.095E-2</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" t="s">
+      <c r="L8" s="18"/>
+      <c r="M8" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="8">
         <f t="shared" si="9"/>
         <v>1.0619711299153807</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="8">
         <f t="shared" si="6"/>
         <v>1.0661286123405362</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="8">
         <f t="shared" si="7"/>
         <v>6.1971129915380674</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="4">
         <f t="shared" si="8"/>
         <v>6.6128612340536241</v>
       </c>
     </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="4"/>
+    </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="8">
         <v>36.340000000000003</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="8">
         <f>B10/1000</f>
         <v>3.6340000000000004E-2</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="8">
         <v>36.520000000000003</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="8">
         <f t="shared" si="1"/>
         <v>3.6520000000000004E-2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="8">
         <v>39.9</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="8">
         <f t="shared" si="2"/>
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="8">
         <v>39.090000000000003</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="8">
         <f t="shared" si="3"/>
         <v>3.9090000000000007E-2</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="8">
         <v>38.57</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="8">
         <f>J10/1000</f>
         <v>3.857E-2</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" t="s">
+      <c r="L10" s="18"/>
+      <c r="M10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="8">
         <f>I10/C10</f>
         <v>1.0756741882223446</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="8">
         <f t="shared" si="6"/>
         <v>1.0561336254107336</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="8">
         <f t="shared" si="7"/>
         <v>7.5674188222344618</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="4">
         <f t="shared" si="8"/>
         <v>5.6133625410733634</v>
       </c>
     </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="4"/>
+    </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>43.53</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="8">
         <f>B12/1000</f>
         <v>4.3529999999999999E-2</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="8">
         <v>41.95</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="8">
         <f t="shared" si="1"/>
         <v>4.1950000000000001E-2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="8">
         <v>39.46</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="8">
         <f t="shared" si="2"/>
         <v>3.9460000000000002E-2</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="8">
         <v>48.27</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="8">
         <f t="shared" si="3"/>
         <v>4.827E-2</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="8">
         <v>48.23</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="8">
         <f t="shared" si="4"/>
         <v>4.8229999999999995E-2</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" t="s">
+      <c r="L12" s="18"/>
+      <c r="M12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="8">
         <f t="shared" si="9"/>
         <v>1.1088904203997243</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="8">
         <f t="shared" si="6"/>
         <v>1.1497020262216924</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="8">
         <f t="shared" si="7"/>
         <v>10.889042039972431</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="4">
         <f t="shared" si="8"/>
         <v>14.970202622169237</v>
       </c>
     </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="4"/>
+    </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="8">
         <v>36.81</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="8">
         <f t="shared" si="0"/>
         <v>3.6810000000000002E-2</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="8">
         <v>26.93</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="8">
         <f t="shared" si="1"/>
         <v>2.6929999999999999E-2</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="8">
         <v>39.700000000000003</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="8">
         <f t="shared" si="2"/>
         <v>3.9700000000000006E-2</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="8">
         <v>38.78</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="8">
         <f t="shared" si="3"/>
         <v>3.8780000000000002E-2</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="8">
         <v>29.46</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="8">
         <f t="shared" si="4"/>
         <v>2.946E-2</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" t="s">
+      <c r="L14" s="18"/>
+      <c r="M14" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="8">
         <f t="shared" si="9"/>
         <v>1.0535180657430046</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="8">
         <f t="shared" si="6"/>
         <v>1.0939472707018196</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="8">
         <f t="shared" si="7"/>
         <v>5.351806574300455</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="4">
         <f t="shared" si="8"/>
         <v>9.394727070181963</v>
       </c>
     </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="4"/>
+    </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="8">
         <v>45.18</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="8">
         <f t="shared" si="0"/>
         <v>4.5179999999999998E-2</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="8">
         <v>39.549999999999997</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="8">
         <f t="shared" si="1"/>
         <v>3.9549999999999995E-2</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="8">
         <v>39.81</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="8">
         <f t="shared" si="2"/>
         <v>3.9810000000000005E-2</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="8">
         <v>48.81</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="8">
         <f t="shared" si="3"/>
         <v>4.8809999999999999E-2</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="8">
         <v>42.27</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="8">
         <f t="shared" si="4"/>
         <v>4.2270000000000002E-2</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="M16" t="s">
+      <c r="L16" s="18"/>
+      <c r="M16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="8">
         <f t="shared" si="9"/>
         <v>1.0803452855245683</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="8">
         <f t="shared" si="6"/>
         <v>1.0687737041719345</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="8">
         <f t="shared" si="7"/>
         <v>8.0345285524568322</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="4">
         <f t="shared" si="8"/>
         <v>6.8773704171934513</v>
       </c>
     </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="4"/>
+    </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="8">
         <v>41.2</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="8">
         <f t="shared" si="0"/>
         <v>4.1200000000000001E-2</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="8">
         <v>50.91</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="8">
         <f t="shared" si="1"/>
         <v>5.0909999999999997E-2</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="8">
         <v>40.25</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="8">
         <f t="shared" si="2"/>
         <v>4.0250000000000001E-2</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="8">
         <v>43.56</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="8">
         <f t="shared" si="3"/>
         <v>4.3560000000000001E-2</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="8">
         <v>53.52</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="8">
         <f t="shared" si="4"/>
         <v>5.3520000000000005E-2</v>
       </c>
-      <c r="L18" s="2"/>
-      <c r="M18" t="s">
+      <c r="L18" s="18"/>
+      <c r="M18" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="8">
         <f t="shared" si="9"/>
         <v>1.0572815533980582</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="8">
         <f t="shared" si="6"/>
         <v>1.0512669416617562</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="8">
         <f t="shared" si="7"/>
         <v>5.7281553398058183</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="4">
         <f t="shared" si="8"/>
         <v>5.126694166175616</v>
       </c>
     </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="4"/>
+    </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="8">
         <v>48.23</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="8">
         <f t="shared" si="0"/>
         <v>4.8229999999999995E-2</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="8">
         <v>27.49</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="8">
         <f t="shared" si="1"/>
         <v>2.7489999999999997E-2</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="8">
         <v>39.93</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="8">
         <f>F20/1000</f>
         <v>3.993E-2</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="8">
         <v>49.53</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="8">
         <f t="shared" si="3"/>
         <v>4.9530000000000005E-2</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="8">
         <v>29.18</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="8">
         <f t="shared" si="4"/>
         <v>2.9180000000000001E-2</v>
       </c>
-      <c r="L20" s="2"/>
-      <c r="M20" t="s">
+      <c r="L20" s="18"/>
+      <c r="M20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="8">
         <f t="shared" si="9"/>
         <v>1.0269541778975744</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="8">
         <f t="shared" si="6"/>
         <v>1.0614769006911606</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="8">
         <f t="shared" si="7"/>
         <v>2.6954177897574372</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="4">
         <f t="shared" si="8"/>
         <v>6.147690069116063</v>
       </c>
     </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="4"/>
+    </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="8">
         <v>32.549999999999997</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="8">
         <f t="shared" si="0"/>
         <v>3.2549999999999996E-2</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="8">
         <v>32.549999999999997</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="8">
         <f t="shared" si="1"/>
         <v>3.2549999999999996E-2</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="8">
         <v>40.11</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="8">
         <f t="shared" si="2"/>
         <v>4.011E-2</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="8">
         <v>35.479999999999997</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="8">
         <f t="shared" si="3"/>
         <v>3.5479999999999998E-2</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="8">
         <v>35.479999999999997</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="8">
         <f t="shared" si="4"/>
         <v>3.5479999999999998E-2</v>
       </c>
-      <c r="L22" s="2"/>
-      <c r="M22" t="s">
+      <c r="L22" s="18"/>
+      <c r="M22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="8">
         <f t="shared" si="9"/>
         <v>1.0900153609831029</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="8">
         <f t="shared" si="6"/>
         <v>1.0900153609831029</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="8">
         <f t="shared" si="7"/>
         <v>9.001536098310293</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="4">
         <f t="shared" si="8"/>
         <v>9.001536098310293</v>
       </c>
     </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="4"/>
+    </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="8">
         <v>42.31</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="8">
         <f t="shared" si="0"/>
         <v>4.231E-2</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="8">
         <v>36.880000000000003</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="8">
         <f t="shared" si="1"/>
         <v>3.6880000000000003E-2</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="8">
         <v>40.19</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="8">
         <f t="shared" si="2"/>
         <v>4.0189999999999997E-2</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="8">
         <v>43.83</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="8">
         <f t="shared" si="3"/>
         <v>4.3830000000000001E-2</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="8">
         <v>38.75</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="8">
         <f t="shared" si="4"/>
         <v>3.875E-2</v>
       </c>
-      <c r="L24" s="2"/>
-      <c r="M24" t="s">
+      <c r="L24" s="18"/>
+      <c r="M24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="8">
         <f t="shared" si="9"/>
         <v>1.0359253131647366</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="8">
         <f t="shared" si="6"/>
         <v>1.050704989154013</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="8">
         <f t="shared" si="7"/>
         <v>3.5925313164736572</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="4">
         <f t="shared" si="8"/>
         <v>5.0704989154013003</v>
       </c>
     </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="4"/>
+    </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="8">
         <v>140.03</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="8">
         <f t="shared" si="0"/>
         <v>0.14002999999999999</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="8">
         <v>141.56</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="8">
         <f>D26/1000</f>
         <v>0.14155999999999999</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="8">
         <v>140.09</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="8">
         <f t="shared" si="2"/>
         <v>0.14008999999999999</v>
       </c>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="4"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="9">
         <v>126.55</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="9">
         <f>B27/1000</f>
         <v>0.12655</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="9">
         <v>4.87</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="9">
         <f>D27/1000</f>
         <v>4.8700000000000002E-3</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="9">
         <v>132.88999999999999</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="9">
         <f>F27/1000</f>
         <v>0.13288999999999998</v>
       </c>
-      <c r="L27" s="2"/>
-    </row>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="6"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B30">
+      <c r="B38" s="10">
         <v>23.28</v>
       </c>
-      <c r="C30">
+      <c r="C38" s="10">
         <v>2.3279999999999999E-2</v>
       </c>
-      <c r="D30">
+      <c r="D38" s="10">
         <v>0.57982565379825601</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="E38" s="2"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B31">
+      <c r="B39" s="8">
         <v>36.340000000000003</v>
       </c>
-      <c r="C31">
+      <c r="C39" s="8">
         <v>3.6339999999999997E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="D39" s="8"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B32">
+      <c r="B40" s="8">
         <v>9</v>
       </c>
-      <c r="C32">
+      <c r="C40" s="8">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="D32">
-        <f>C32*2</f>
+      <c r="D40" s="8">
+        <f>C40*2</f>
         <v>1.8E-3</v>
       </c>
-      <c r="E32">
-        <f>C20-D32</f>
+      <c r="E40" s="4">
+        <f>C20-D40</f>
         <v>4.6429999999999992E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="F40" s="8"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C33">
+      <c r="C41" s="8">
         <v>28.62</v>
       </c>
-      <c r="D33">
+      <c r="D41" s="8">
         <v>2.862E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="E41" s="4"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C34">
+      <c r="C42" s="9">
         <v>39.15</v>
       </c>
-      <c r="D34">
+      <c r="D42" s="9">
         <v>3.9149999999999997E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="E42" s="6"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C36">
+      <c r="C44" s="8">
         <v>10.029999999999999</v>
       </c>
-      <c r="D36">
-        <f>C36/1000</f>
+      <c r="D44" s="4">
+        <f>C44/1000</f>
         <v>1.0029999999999999E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C37">
+      <c r="C45" s="8">
         <v>10.07</v>
       </c>
-      <c r="D37">
-        <f t="shared" ref="D37:D44" si="10">C37/1000</f>
+      <c r="D45" s="4">
+        <f t="shared" ref="D45:D52" si="10">C45/1000</f>
         <v>1.0070000000000001E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C38">
+      <c r="C46" s="8">
         <v>9.69</v>
       </c>
-      <c r="D38">
+      <c r="D46" s="4">
         <f t="shared" si="10"/>
         <v>9.689999999999999E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C39">
+      <c r="C47" s="8">
         <v>9.7100000000000009</v>
       </c>
-      <c r="D39">
+      <c r="D47" s="4">
         <f t="shared" si="10"/>
         <v>9.7100000000000016E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C40">
-        <f>B26-C44</f>
+      <c r="C48" s="8">
+        <f>B26-C52</f>
         <v>8.9900000000000091</v>
       </c>
-      <c r="D40">
+      <c r="D48" s="4">
         <f t="shared" si="10"/>
         <v>8.9900000000000084E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C41">
+      <c r="C49" s="8">
         <v>15.89</v>
       </c>
-      <c r="D41">
-        <f>C41/1000</f>
+      <c r="D49" s="4">
+        <f>C49/1000</f>
         <v>1.5890000000000001E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C42">
+      <c r="C50" s="8">
         <v>119.92</v>
       </c>
-      <c r="D42">
+      <c r="D50" s="4">
         <f t="shared" si="10"/>
         <v>0.11992</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C43">
+      <c r="C51" s="8">
         <v>120.69</v>
       </c>
-      <c r="D43">
+      <c r="D51" s="4">
         <f t="shared" si="10"/>
         <v>0.12068999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C44">
+      <c r="C52" s="8">
         <v>131.04</v>
       </c>
-      <c r="D44">
+      <c r="D52" s="4">
         <f t="shared" si="10"/>
         <v>0.13103999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F45" t="s">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D47">
+      <c r="D55" s="8">
         <v>20.89</v>
       </c>
-      <c r="E47">
-        <f t="shared" ref="E47:E52" si="11">D47/1000</f>
+      <c r="E55" s="8">
+        <f t="shared" ref="E55:E60" si="11">D55/1000</f>
         <v>2.0889999999999999E-2</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F55" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G55" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D48">
+      <c r="D56" s="8">
         <v>45.68</v>
       </c>
-      <c r="E48">
+      <c r="E56" s="8">
         <f t="shared" si="11"/>
         <v>4.5679999999999998E-2</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F56" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G56" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D49">
+      <c r="D57" s="8">
         <v>11.65</v>
       </c>
-      <c r="E49">
+      <c r="E57" s="8">
         <f t="shared" si="11"/>
         <v>1.1650000000000001E-2</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F57" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G57" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D50">
+      <c r="D58" s="8">
         <v>18.579999999999998</v>
       </c>
-      <c r="E50">
+      <c r="E58" s="8">
         <f t="shared" si="11"/>
         <v>1.8579999999999999E-2</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F58" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G58" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D51">
+      <c r="D59" s="8">
         <v>15.9</v>
       </c>
-      <c r="E51">
+      <c r="E59" s="8">
         <f t="shared" si="11"/>
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F59" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G59" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D52">
+      <c r="D60" s="9">
         <v>18.75</v>
       </c>
-      <c r="E52">
+      <c r="E60" s="9">
         <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F60" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G60" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D54">
+      <c r="D62" s="8">
         <v>22.26</v>
       </c>
-      <c r="E54">
-        <f t="shared" ref="E54:E59" si="12">D54/1000</f>
+      <c r="E62" s="8">
+        <f t="shared" ref="E62:E67" si="12">D62/1000</f>
         <v>2.2260000000000002E-2</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F62" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G62" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D55">
+      <c r="D63" s="8">
         <v>17.77</v>
       </c>
-      <c r="E55">
+      <c r="E63" s="8">
         <f t="shared" si="12"/>
         <v>1.7770000000000001E-2</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F63" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G63" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D56">
+      <c r="D64" s="8">
         <v>25.58</v>
       </c>
-      <c r="E56">
+      <c r="E64" s="8">
         <f t="shared" si="12"/>
         <v>2.5579999999999999E-2</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F64" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G64" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D57">
+      <c r="D65" s="8">
         <v>18.66</v>
       </c>
-      <c r="E57">
+      <c r="E65" s="8">
         <f t="shared" si="12"/>
         <v>1.866E-2</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F65" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G65" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D58">
+      <c r="D66" s="8">
         <v>21.02</v>
       </c>
-      <c r="E58">
+      <c r="E66" s="8">
         <f t="shared" si="12"/>
         <v>2.102E-2</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F66" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G66" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
+    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D59">
+      <c r="D67" s="9">
         <v>47.52</v>
       </c>
-      <c r="E59">
+      <c r="E67" s="9">
         <f t="shared" si="12"/>
         <v>4.752E-2</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F67" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G67" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D61">
+      <c r="D69" s="8">
         <v>24.38</v>
       </c>
-      <c r="E61">
-        <f t="shared" ref="E61:E66" si="13">D61/1000</f>
+      <c r="E69" s="8">
+        <f t="shared" ref="E69:E74" si="13">D69/1000</f>
         <v>2.4379999999999999E-2</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F69" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G69" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D62">
+      <c r="D70" s="8">
         <v>18.71</v>
       </c>
-      <c r="E62">
+      <c r="E70" s="8">
         <f t="shared" si="13"/>
         <v>1.8710000000000001E-2</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F70" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G70" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D63">
+      <c r="D71" s="8">
         <v>23.77</v>
       </c>
-      <c r="E63">
+      <c r="E71" s="8">
         <f t="shared" si="13"/>
         <v>2.3769999999999999E-2</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F71" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G71" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D64">
+      <c r="D72" s="8">
         <v>18.2</v>
       </c>
-      <c r="E64">
-        <f>D64/1000</f>
+      <c r="E72" s="8">
+        <f>D72/1000</f>
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F72" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G72" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D65">
+      <c r="D73" s="8">
         <v>19.79</v>
       </c>
-      <c r="E65">
+      <c r="E73" s="8">
         <f t="shared" si="13"/>
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F73" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G73" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
+    <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D66">
+      <c r="D74" s="9">
         <v>48.29</v>
       </c>
-      <c r="E66">
+      <c r="E74" s="9">
         <f t="shared" si="13"/>
         <v>4.829E-2</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F74" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G74" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" s="11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D68">
+      <c r="D76" s="8">
         <v>17.22</v>
       </c>
-      <c r="E68">
-        <f t="shared" ref="E68:E73" si="14">D68/1000</f>
+      <c r="E76" s="8">
+        <f t="shared" ref="E76:E81" si="14">D76/1000</f>
         <v>1.7219999999999999E-2</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F76" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G76" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D69">
+      <c r="D77" s="8">
         <v>38.92</v>
       </c>
-      <c r="E69">
+      <c r="E77" s="8">
         <f t="shared" si="14"/>
         <v>3.8920000000000003E-2</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F77" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G77" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D70">
+      <c r="D78" s="8">
         <v>15.21</v>
       </c>
-      <c r="E70">
+      <c r="E78" s="8">
         <f t="shared" si="14"/>
         <v>1.5210000000000001E-2</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F78" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G78" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D71">
+      <c r="D79" s="8">
         <v>19.079999999999998</v>
       </c>
-      <c r="E71">
+      <c r="E79" s="8">
         <f t="shared" si="14"/>
         <v>1.908E-2</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F79" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G79" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D72">
+      <c r="D80" s="8">
         <v>14.44</v>
       </c>
-      <c r="E72">
+      <c r="E80" s="8">
         <f t="shared" si="14"/>
         <v>1.444E-2</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F80" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G80" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
+    <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D73">
+      <c r="D81" s="9">
         <v>16.38</v>
       </c>
-      <c r="E73">
+      <c r="E81" s="9">
         <f t="shared" si="14"/>
         <v>1.6379999999999999E-2</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F81" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G81" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
+      <c r="B83" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C75">
+      <c r="C83" s="8">
         <v>18.399999999999999</v>
       </c>
-      <c r="D75">
-        <f>C75/1000</f>
+      <c r="D83" s="8">
+        <f>C83/1000</f>
         <v>1.84E-2</v>
       </c>
-      <c r="E75">
-        <f>D75*2</f>
+      <c r="E83" s="8">
+        <f>D83*2</f>
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="F75">
-        <f>D75/2</f>
+      <c r="F83" s="8">
+        <f>D83/2</f>
         <v>9.1999999999999998E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
+      <c r="B84" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C76">
+      <c r="C84" s="8">
         <v>1.88</v>
       </c>
-      <c r="D76">
-        <f>C76/1000</f>
+      <c r="D84" s="8">
+        <f>C84/1000</f>
         <v>1.8799999999999999E-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="4"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="B85" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C77">
+      <c r="C85" s="8">
         <v>44.26</v>
       </c>
-      <c r="D77">
-        <f>C77/1000</f>
+      <c r="D85" s="8">
+        <f>C85/1000</f>
         <v>4.4260000000000001E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="5"/>
+      <c r="B86" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C78">
-        <f>C77-(C75+C76+C76)</f>
+      <c r="C86" s="9">
+        <f>C85-(C83+C84+C84)</f>
         <v>22.1</v>
       </c>
-      <c r="D78">
-        <f>C78/1000</f>
+      <c r="D86" s="9">
+        <f>C86/1000</f>
         <v>2.2100000000000002E-2</v>
       </c>
-      <c r="E78">
-        <f>D78/2</f>
+      <c r="E86" s="9">
+        <f>D86/2</f>
         <v>1.1050000000000001E-2</v>
       </c>
+      <c r="F86" s="9"/>
+      <c r="G86" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
